--- a/CADCData/AgData/predictedYieldsExcel.xlsx
+++ b/CADCData/AgData/predictedYieldsExcel.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AKHIL/Development/git/CADCData/AgData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AKHIL/Development/git/DataChallenge/CADCData/AgData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E689F22D-1757-2647-B8D3-5AD4D8ADCE08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2A5F79-683D-CD44-B8F5-B4B92D73E817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="predictedYields" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">predictedYields!$T$2:$T$15</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">predictedYields!$U$2:$U$15</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">predictedYields!$T$2:$T$15</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">predictedYields!$U$2:$U$15</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="20">
   <si>
     <t>Crop</t>
   </si>
@@ -57,12 +71,36 @@
   <si>
     <t>Sorghum</t>
   </si>
+  <si>
+    <t>barley</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>oats</t>
+  </si>
+  <si>
+    <t>sorghum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average change </t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -197,8 +235,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,8 +429,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -494,6 +557,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -539,8 +617,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -597,6 +687,2407 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Actual vs. Predicted Yield/Harvested Acre Values</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Actual Yield per Harvested Acre</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>predictedYields!$H$22:$H$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>136.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>147.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>149.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>153.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>164.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>152.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>146.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>123.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>158.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>168.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>174.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>176.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>176.4143</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>168.2474</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16C8-4741-B271-FAECA350CA59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted Yield per Harvested Acre</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>predictedYields!$I$22:$I$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>133.081755057366</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134.23153176513199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136.46314599425099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132.95648487345699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>134.36095792059999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>149.61448546490499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153.26020061991301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>147.31120371345901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>148.70467789090799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150.762226367186</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>157.336859321574</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>157.59140409305701</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>148.686866849414</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>134.51174006619101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>138.57622101409899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>162.95132314390901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>168.46611906648701</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170.02768200692699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>174.212490669305</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>175.17081812317099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-16C8-4741-B271-FAECA350CA59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="441354864"/>
+        <c:axId val="478204944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="441354864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478204944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="478204944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="190"/>
+          <c:min val="120"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441354864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Difference</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> between Predicted and Actual Yield/Acre Value</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1463254593175854E-2"/>
+          <c:y val="0.23226851851851851"/>
+          <c:w val="0.90287510936132986"/>
+          <c:h val="0.49114902303878682"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>predictedYields!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Barley</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>predictedYields!$N$3:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>predictedYields!$O$3:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.6977286632302011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7421874873001997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2690379283894018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6584473544366958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.145315829153198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2741028251030997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7666198322842988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.615677919110297</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.137182016538695</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.660085087406095</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7669941349638947</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3433955956729022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.818152276745991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7078569129916019</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1892124584491057</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3692063863506121</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.3898494734547029</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.23495042655730458</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3279064891736994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.71194329906749942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D0B-1C4B-9C47-8486E4ED5276}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Corn</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>predictedYields!$P$3:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.8182449426340099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9684682348679985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1631459942509821</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2435151265430022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.939042079400025</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7144854649049819</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.160200619913013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3887962865409804</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5953221090920238</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.637773632814003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.736859321574002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.791404093056997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.586866849414008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.588259933808985</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.423778985901009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.4486768560909979</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.1338809335129838</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.5723179930729998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2018093306949993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.9234181231709897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2D0B-1C4B-9C47-8486E4ED5276}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Oats</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>predictedYields!$Q$3:$Q$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.7040686787508008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1547465414289988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0817726447609033</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3282297624009018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6522171672619024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4049231980591941</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6492903005414021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95590155229270124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1766754116281035</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5272882339701042</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63022009703421134</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.5763879192392096</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48160039496369933</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.3664993588400947</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.7633706871695054</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7605736042889077</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5087458600313965</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.0376593428450036</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.37086801915639</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6602593963861949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2D0B-1C4B-9C47-8486E4ED5276}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>predictedYields!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sorghum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>predictedYields!$R$3:$R$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.0736878198661017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1906990548518976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4202606783255973</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4241629124721982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.350800719128792</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2064339425491966</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.517380503572404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.990350410666501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3384266562512934</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49893576580950594</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.2130336582251999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.1128008844546</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.403906568645596</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0298442528140015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.629990280507798</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.041214086013099</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8051076704085034</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.6836181676036972</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3453900263462941</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8346425013645984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2D0B-1C4B-9C47-8486E4ED5276}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="437097936"/>
+        <c:axId val="437169280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="437097936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437169280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="437169280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437097936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{997E380D-DED7-984E-8236-F4B390A905F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE821AA-3AC8-4E4C-A129-78C28E8C167E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -895,16 +3386,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -929,8 +3420,17 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>134</v>
       </c>
@@ -958,8 +3458,40 @@
       <c r="I2">
         <v>59.4022713367698</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <f xml:space="preserve"> IF(H2&gt;I2,H2-I2,I2-H2)</f>
+        <v>1.6977286632302011</v>
+      </c>
+      <c r="K2">
+        <f xml:space="preserve"> AVERAGE(J2:J21)</f>
+        <v>4.091292619818975</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1991</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>135</v>
       </c>
@@ -987,8 +3519,40 @@
       <c r="I3">
         <v>59.842187487300201</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="0" xml:space="preserve"> IF(H3&gt;I3,H3-I3,I3-H3)</f>
+        <v>1.7421874873001997</v>
+      </c>
+      <c r="K3">
+        <f xml:space="preserve"> AVERAGE(J22:J41)</f>
+        <v>10.101813345562949</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3">
+        <v>2000</v>
+      </c>
+      <c r="O3">
+        <v>1.6977286632302011</v>
+      </c>
+      <c r="P3">
+        <v>3.8182449426340099</v>
+      </c>
+      <c r="Q3">
+        <v>4.7040686787508008</v>
+      </c>
+      <c r="R3">
+        <v>7.0736878198661017</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1992</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>136</v>
       </c>
@@ -1016,8 +3580,40 @@
       <c r="I4">
         <v>59.269037928389402</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>4.2690379283894018</v>
+      </c>
+      <c r="K4">
+        <f xml:space="preserve"> AVERAGE(J42:J61)</f>
+        <v>3.8895649085524808</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4">
+        <v>2001</v>
+      </c>
+      <c r="O4">
+        <v>1.7421874873001997</v>
+      </c>
+      <c r="P4">
+        <v>3.9684682348679985</v>
+      </c>
+      <c r="Q4">
+        <v>0.1547465414289988</v>
+      </c>
+      <c r="R4">
+        <v>5.1906990548518976</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1993</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>137</v>
       </c>
@@ -1045,8 +3641,40 @@
       <c r="I5">
         <v>56.241552645563303</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>2.6584473544366958</v>
+      </c>
+      <c r="K5">
+        <f xml:space="preserve"> AVERAGE(J62:J81)</f>
+        <v>8.1055343279938459</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5">
+        <v>2002</v>
+      </c>
+      <c r="O5">
+        <v>4.2690379283894018</v>
+      </c>
+      <c r="P5">
+        <v>7.1631459942509821</v>
+      </c>
+      <c r="Q5">
+        <v>6.0817726447609033</v>
+      </c>
+      <c r="R5">
+        <v>9.4202606783255973</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1994</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>138</v>
       </c>
@@ -1074,8 +3702,33 @@
       <c r="I6">
         <v>56.454684170846797</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>13.145315829153198</v>
+      </c>
+      <c r="N6">
+        <v>2003</v>
+      </c>
+      <c r="O6">
+        <v>2.6584473544366958</v>
+      </c>
+      <c r="P6">
+        <v>9.2435151265430022</v>
+      </c>
+      <c r="Q6">
+        <v>6.3282297624009018</v>
+      </c>
+      <c r="R6">
+        <v>2.4241629124721982</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1995</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>139</v>
       </c>
@@ -1103,8 +3756,33 @@
       <c r="I7">
         <v>63.525897174896897</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1.2741028251030997</v>
+      </c>
+      <c r="N7">
+        <v>2004</v>
+      </c>
+      <c r="O7">
+        <v>13.145315829153198</v>
+      </c>
+      <c r="P7">
+        <v>25.939042079400025</v>
+      </c>
+      <c r="Q7">
+        <v>4.6522171672619024</v>
+      </c>
+      <c r="R7">
+        <v>18.350800719128792</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1996</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>140</v>
       </c>
@@ -1132,8 +3810,33 @@
       <c r="I8">
         <v>66.8666198322843</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>5.7666198322842988</v>
+      </c>
+      <c r="N8">
+        <v>2005</v>
+      </c>
+      <c r="O8">
+        <v>1.2741028251030997</v>
+      </c>
+      <c r="P8">
+        <v>1.7144854649049819</v>
+      </c>
+      <c r="Q8">
+        <v>1.4049231980591941</v>
+      </c>
+      <c r="R8">
+        <v>8.2064339425491966</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1997</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>141</v>
       </c>
@@ -1161,8 +3864,33 @@
       <c r="I9">
         <v>62.615677919110297</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>2.615677919110297</v>
+      </c>
+      <c r="N9">
+        <v>2006</v>
+      </c>
+      <c r="O9">
+        <v>5.7666198322842988</v>
+      </c>
+      <c r="P9">
+        <v>4.160200619913013</v>
+      </c>
+      <c r="Q9">
+        <v>3.6492903005414021</v>
+      </c>
+      <c r="R9">
+        <v>12.517380503572404</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1998</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>142</v>
       </c>
@@ -1190,8 +3918,33 @@
       <c r="I10">
         <v>60.162817983461302</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>3.137182016538695</v>
+      </c>
+      <c r="N10">
+        <v>2007</v>
+      </c>
+      <c r="O10">
+        <v>2.615677919110297</v>
+      </c>
+      <c r="P10">
+        <v>3.3887962865409804</v>
+      </c>
+      <c r="Q10">
+        <v>0.95590155229270124</v>
+      </c>
+      <c r="R10">
+        <v>10.990350410666501</v>
+      </c>
+      <c r="T10" s="2">
+        <v>1999</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>143</v>
       </c>
@@ -1219,8 +3972,33 @@
       <c r="I11">
         <v>61.139914912593902</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>11.660085087406095</v>
+      </c>
+      <c r="N11">
+        <v>2008</v>
+      </c>
+      <c r="O11">
+        <v>3.137182016538695</v>
+      </c>
+      <c r="P11">
+        <v>4.5953221090920238</v>
+      </c>
+      <c r="Q11">
+        <v>4.1766754116281035</v>
+      </c>
+      <c r="R11">
+        <v>1.3384266562512934</v>
+      </c>
+      <c r="T11" s="2">
+        <v>2000</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>144</v>
       </c>
@@ -1248,8 +4026,33 @@
       <c r="I12">
         <v>67.3330058650361</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>5.7669941349638947</v>
+      </c>
+      <c r="N12">
+        <v>2009</v>
+      </c>
+      <c r="O12">
+        <v>11.660085087406095</v>
+      </c>
+      <c r="P12">
+        <v>13.637773632814003</v>
+      </c>
+      <c r="Q12">
+        <v>6.5272882339701042</v>
+      </c>
+      <c r="R12">
+        <v>0.49893576580950594</v>
+      </c>
+      <c r="T12" s="2">
+        <v>2001</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>145</v>
       </c>
@@ -1277,8 +4080,33 @@
       <c r="I13">
         <v>72.443395595672897</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>3.3433955956729022</v>
+      </c>
+      <c r="N13">
+        <v>2010</v>
+      </c>
+      <c r="O13">
+        <v>5.7669941349638947</v>
+      </c>
+      <c r="P13">
+        <v>4.736859321574002</v>
+      </c>
+      <c r="Q13">
+        <v>0.63022009703421134</v>
+      </c>
+      <c r="R13">
+        <v>5.2130336582251999</v>
+      </c>
+      <c r="T13" s="2">
+        <v>2002</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>146</v>
       </c>
@@ -1306,8 +4134,33 @@
       <c r="I14">
         <v>70.718152276745997</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>3.818152276745991</v>
+      </c>
+      <c r="N14">
+        <v>2011</v>
+      </c>
+      <c r="O14">
+        <v>3.3433955956729022</v>
+      </c>
+      <c r="P14">
+        <v>10.791404093056997</v>
+      </c>
+      <c r="Q14">
+        <v>8.5763879192392096</v>
+      </c>
+      <c r="R14">
+        <v>16.1128008844546</v>
+      </c>
+      <c r="T14" s="2">
+        <v>2003</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>147</v>
       </c>
@@ -1335,8 +4188,33 @@
       <c r="I15">
         <v>67.592143087008395</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>3.7078569129916019</v>
+      </c>
+      <c r="N15">
+        <v>2012</v>
+      </c>
+      <c r="O15">
+        <v>3.818152276745991</v>
+      </c>
+      <c r="P15">
+        <v>25.586866849414008</v>
+      </c>
+      <c r="Q15">
+        <v>0.48160039496369933</v>
+      </c>
+      <c r="R15">
+        <v>13.403906568645596</v>
+      </c>
+      <c r="T15" s="2">
+        <v>2005</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>148</v>
       </c>
@@ -1364,8 +4242,27 @@
       <c r="I16">
         <v>68.510787541550897</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>4.1892124584491057</v>
+      </c>
+      <c r="N16">
+        <v>2013</v>
+      </c>
+      <c r="O16">
+        <v>3.7078569129916019</v>
+      </c>
+      <c r="P16">
+        <v>23.588259933808985</v>
+      </c>
+      <c r="Q16">
+        <v>5.3664993588400947</v>
+      </c>
+      <c r="R16">
+        <v>8.0298442528140015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>149</v>
       </c>
@@ -1393,8 +4290,27 @@
       <c r="I17">
         <v>71.469206386350606</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>2.3692063863506121</v>
+      </c>
+      <c r="N17">
+        <v>2014</v>
+      </c>
+      <c r="O17">
+        <v>4.1892124584491057</v>
+      </c>
+      <c r="P17">
+        <v>32.423778985901009</v>
+      </c>
+      <c r="Q17">
+        <v>5.7633706871695054</v>
+      </c>
+      <c r="R17">
+        <v>13.629990280507798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>150</v>
       </c>
@@ -1422,8 +4338,27 @@
       <c r="I18">
         <v>70.510150526545303</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>7.3898494734547029</v>
+      </c>
+      <c r="N18">
+        <v>2015</v>
+      </c>
+      <c r="O18">
+        <v>2.3692063863506121</v>
+      </c>
+      <c r="P18">
+        <v>5.4486768560909979</v>
+      </c>
+      <c r="Q18">
+        <v>4.7605736042889077</v>
+      </c>
+      <c r="R18">
+        <v>13.041214086013099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>151</v>
       </c>
@@ -1451,8 +4386,27 @@
       <c r="I19">
         <v>72.765049573442695</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0.23495042655730458</v>
+      </c>
+      <c r="N19">
+        <v>2016</v>
+      </c>
+      <c r="O19">
+        <v>7.3898494734547029</v>
+      </c>
+      <c r="P19">
+        <v>6.1338809335129838</v>
+      </c>
+      <c r="Q19">
+        <v>2.5087458600313965</v>
+      </c>
+      <c r="R19">
+        <v>6.8051076704085034</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>152</v>
       </c>
@@ -1480,8 +4434,27 @@
       <c r="I20">
         <v>75.064393510826307</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>2.3279064891736994</v>
+      </c>
+      <c r="N20">
+        <v>2017</v>
+      </c>
+      <c r="O20">
+        <v>0.23495042655730458</v>
+      </c>
+      <c r="P20">
+        <v>6.5723179930729998</v>
+      </c>
+      <c r="Q20">
+        <v>6.0376593428450036</v>
+      </c>
+      <c r="R20">
+        <v>4.6836181676036972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>153</v>
       </c>
@@ -1509,8 +4482,27 @@
       <c r="I21">
         <v>74.565643299067503</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0.71194329906749942</v>
+      </c>
+      <c r="N21">
+        <v>2018</v>
+      </c>
+      <c r="O21">
+        <v>2.3279064891736994</v>
+      </c>
+      <c r="P21">
+        <v>2.2018093306949993</v>
+      </c>
+      <c r="Q21">
+        <v>1.37086801915639</v>
+      </c>
+      <c r="R21">
+        <v>2.3453900263462941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>275</v>
       </c>
@@ -1529,8 +4521,8 @@
       <c r="F22">
         <v>133.80000000000001</v>
       </c>
-      <c r="G22">
-        <v>134.4</v>
+      <c r="G22" t="s">
+        <v>19</v>
       </c>
       <c r="H22">
         <v>136.9</v>
@@ -1538,8 +4530,27 @@
       <c r="I22">
         <v>133.081755057366</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>3.8182449426340099</v>
+      </c>
+      <c r="N22">
+        <v>2019</v>
+      </c>
+      <c r="O22">
+        <v>0.71194329906749942</v>
+      </c>
+      <c r="P22">
+        <v>6.9234181231709897</v>
+      </c>
+      <c r="Q22">
+        <v>3.6602593963861949</v>
+      </c>
+      <c r="R22">
+        <v>2.8346425013645984</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>276</v>
       </c>
@@ -1567,8 +4578,12 @@
       <c r="I23">
         <v>134.23153176513199</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>3.9684682348679985</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>277</v>
       </c>
@@ -1596,8 +4611,12 @@
       <c r="I24">
         <v>136.46314599425099</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>7.1631459942509821</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>278</v>
       </c>
@@ -1625,8 +4644,12 @@
       <c r="I25">
         <v>132.95648487345699</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>9.2435151265430022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>279</v>
       </c>
@@ -1654,8 +4677,12 @@
       <c r="I26">
         <v>134.36095792059999</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>25.939042079400025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>280</v>
       </c>
@@ -1683,8 +4710,12 @@
       <c r="I27">
         <v>149.61448546490499</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>1.7144854649049819</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>281</v>
       </c>
@@ -1712,8 +4743,12 @@
       <c r="I28">
         <v>153.26020061991301</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>4.160200619913013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>282</v>
       </c>
@@ -1741,8 +4776,12 @@
       <c r="I29">
         <v>147.31120371345901</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>3.3887962865409804</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>283</v>
       </c>
@@ -1770,8 +4809,12 @@
       <c r="I30">
         <v>148.70467789090799</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>4.5953221090920238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>284</v>
       </c>
@@ -1799,8 +4842,12 @@
       <c r="I31">
         <v>150.762226367186</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>13.637773632814003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>285</v>
       </c>
@@ -1828,8 +4875,12 @@
       <c r="I32">
         <v>157.336859321574</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>4.736859321574002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>286</v>
       </c>
@@ -1857,8 +4908,12 @@
       <c r="I33">
         <v>157.59140409305701</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>10.791404093056997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>287</v>
       </c>
@@ -1886,8 +4941,12 @@
       <c r="I34">
         <v>148.686866849414</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>25.586866849414008</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>288</v>
       </c>
@@ -1915,8 +4974,12 @@
       <c r="I35">
         <v>134.51174006619101</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>23.588259933808985</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>289</v>
       </c>
@@ -1944,8 +5007,12 @@
       <c r="I36">
         <v>138.57622101409899</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>32.423778985901009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>290</v>
       </c>
@@ -1973,8 +5040,12 @@
       <c r="I37">
         <v>162.95132314390901</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>5.4486768560909979</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>291</v>
       </c>
@@ -2002,8 +5073,12 @@
       <c r="I38">
         <v>168.46611906648701</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>6.1338809335129838</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>292</v>
       </c>
@@ -2031,8 +5106,12 @@
       <c r="I39">
         <v>170.02768200692699</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>6.5723179930729998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>293</v>
       </c>
@@ -2060,8 +5139,12 @@
       <c r="I40">
         <v>174.212490669305</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>2.2018093306949993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>294</v>
       </c>
@@ -2089,8 +5172,12 @@
       <c r="I41">
         <v>175.17081812317099</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>6.9234181231709897</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>429</v>
       </c>
@@ -2118,8 +5205,12 @@
       <c r="I42">
         <v>59.495931321249202</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>4.7040686787508008</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>430</v>
       </c>
@@ -2147,8 +5238,12 @@
       <c r="I43">
         <v>61.345253458571001</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>0.1547465414289988</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>431</v>
       </c>
@@ -2176,8 +5271,12 @@
       <c r="I44">
         <v>62.481772644760902</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>6.0817726447609033</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>432</v>
       </c>
@@ -2205,8 +5304,12 @@
       <c r="I45">
         <v>58.671770237599098</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>6.3282297624009018</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>433</v>
       </c>
@@ -2234,8 +5337,12 @@
       <c r="I46">
         <v>60.0477828327381</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>4.6522171672619024</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>434</v>
       </c>
@@ -2263,8 +5370,12 @@
       <c r="I47">
         <v>64.404923198059194</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>1.4049231980591941</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>435</v>
       </c>
@@ -2292,8 +5403,12 @@
       <c r="I48">
         <v>63.449290300541399</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>3.6492903005414021</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>436</v>
       </c>
@@ -2321,8 +5436,12 @@
       <c r="I49">
         <v>61.055901552292703</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>0.95590155229270124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>437</v>
       </c>
@@ -2350,8 +5469,12 @@
       <c r="I50">
         <v>59.523324588371899</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>4.1766754116281035</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>438</v>
       </c>
@@ -2379,8 +5502,12 @@
       <c r="I51">
         <v>61.372711766029902</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>6.5272882339701042</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>439</v>
       </c>
@@ -2408,8 +5535,12 @@
       <c r="I52">
         <v>65.230220097034206</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>0.63022009703421134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>440</v>
       </c>
@@ -2437,8 +5568,12 @@
       <c r="I53">
         <v>65.876387919239207</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>8.5763879192392096</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>441</v>
       </c>
@@ -2466,8 +5601,12 @@
       <c r="I54">
         <v>60.718399605036304</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>0.48160039496369933</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>442</v>
       </c>
@@ -2495,8 +5634,12 @@
       <c r="I55">
         <v>58.7335006411599</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>5.3664993588400947</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>443</v>
       </c>
@@ -2524,8 +5667,12 @@
       <c r="I56">
         <v>62.1366293128305</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>5.7633706871695054</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>444</v>
       </c>
@@ -2553,8 +5700,12 @@
       <c r="I57">
         <v>65.439426395711095</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>4.7605736042889077</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>445</v>
       </c>
@@ -2582,8 +5733,12 @@
       <c r="I58">
         <v>68.508745860031397</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>2.5087458600313965</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>446</v>
       </c>
@@ -2611,8 +5766,12 @@
       <c r="I59">
         <v>67.737659342845006</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>6.0376593428450036</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>447</v>
       </c>
@@ -2640,8 +5799,12 @@
       <c r="I60">
         <v>63.519331980843603</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>1.37086801915639</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>448</v>
       </c>
@@ -2669,8 +5832,12 @@
       <c r="I61">
         <v>62.769840603613801</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>3.6602593963861949</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>520</v>
       </c>
@@ -2698,8 +5865,12 @@
       <c r="I62">
         <v>67.9736878198661</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>7.0736878198661017</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>521</v>
       </c>
@@ -2727,8 +5898,12 @@
       <c r="I63">
         <v>65.090699054851896</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>5.1906990548518976</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>522</v>
       </c>
@@ -2756,8 +5931,12 @@
       <c r="I64">
         <v>60.020260678325599</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>9.4202606783255973</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>523</v>
       </c>
@@ -2785,8 +5964,12 @@
       <c r="I65">
         <v>55.124162912472201</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>2.4241629124721982</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>524</v>
       </c>
@@ -2814,8 +5997,12 @@
       <c r="I66">
         <v>51.249199280871203</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>18.350800719128792</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>525</v>
       </c>
@@ -2843,8 +6030,12 @@
       <c r="I67">
         <v>60.293566057450803</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67">
+        <f t="shared" ref="J67:J81" si="1" xml:space="preserve"> IF(H67&gt;I67,H67-I67,I67-H67)</f>
+        <v>8.2064339425491966</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>526</v>
       </c>
@@ -2872,8 +6063,12 @@
       <c r="I68">
         <v>68.617380503572406</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68">
+        <f t="shared" si="1"/>
+        <v>12.517380503572404</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>527</v>
       </c>
@@ -2901,8 +6096,12 @@
       <c r="I69">
         <v>62.209649589333502</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69">
+        <f t="shared" si="1"/>
+        <v>10.990350410666501</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>528</v>
       </c>
@@ -2930,8 +6129,12 @@
       <c r="I70">
         <v>63.761573343748701</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70">
+        <f t="shared" si="1"/>
+        <v>1.3384266562512934</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>529</v>
       </c>
@@ -2959,8 +6162,12 @@
       <c r="I71">
         <v>68.9010642341905</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71">
+        <f t="shared" si="1"/>
+        <v>0.49893576580950594</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>530</v>
       </c>
@@ -2988,8 +6195,12 @@
       <c r="I72">
         <v>66.686966341774806</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72">
+        <f t="shared" si="1"/>
+        <v>5.2130336582251999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>531</v>
       </c>
@@ -3017,8 +6228,12 @@
       <c r="I73">
         <v>70.1128008844546</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73">
+        <f t="shared" si="1"/>
+        <v>16.1128008844546</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>532</v>
       </c>
@@ -3046,8 +6261,12 @@
       <c r="I74">
         <v>63.003906568645597</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74">
+        <f t="shared" si="1"/>
+        <v>13.403906568645596</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>533</v>
       </c>
@@ -3075,8 +6294,12 @@
       <c r="I75">
         <v>51.570155747186</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75">
+        <f t="shared" si="1"/>
+        <v>8.0298442528140015</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>534</v>
       </c>
@@ -3104,8 +6327,12 @@
       <c r="I76">
         <v>53.970009719492197</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76">
+        <f t="shared" si="1"/>
+        <v>13.629990280507798</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>535</v>
       </c>
@@ -3133,8 +6360,12 @@
       <c r="I77">
         <v>62.958785913986901</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77">
+        <f t="shared" si="1"/>
+        <v>13.041214086013099</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>536</v>
       </c>
@@ -3162,8 +6393,12 @@
       <c r="I78">
         <v>71.094892329591502</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78">
+        <f t="shared" si="1"/>
+        <v>6.8051076704085034</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>537</v>
       </c>
@@ -3191,8 +6426,12 @@
       <c r="I79">
         <v>76.3836181676037</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79">
+        <f t="shared" si="1"/>
+        <v>4.6836181676036972</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>538</v>
       </c>
@@ -3220,8 +6459,12 @@
       <c r="I80">
         <v>74.462790026346298</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80">
+        <f t="shared" si="1"/>
+        <v>2.3453900263462941</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>539</v>
       </c>
@@ -3249,8 +6492,13 @@
       <c r="I81">
         <v>71.416657498635402</v>
       </c>
+      <c r="J81">
+        <f t="shared" si="1"/>
+        <v>2.8346425013645984</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>